--- a/docs/画面項目定義書/image_management/image_dashboard.xlsx
+++ b/docs/画面項目定義書/image_management/image_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\image_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822AB7AF-AE60-43D6-A41C-9EC989D421D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A2DCC-FF9F-443E-B6C8-A6CAC0CC2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -162,21 +162,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>image_dashboard</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>image_dashboard.html</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージ追加モーダルへ遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -262,6 +248,20 @@
   </si>
   <si>
     <t>いいえ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージダッシュボード画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mo_image_addへ遷移</t>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1216,11 +1216,11 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="42" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -1341,11 +1341,11 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
@@ -1360,11 +1360,11 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13">
@@ -1410,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>19</v>
@@ -1427,18 +1427,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13">
@@ -1446,18 +1446,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13">

--- a/docs/画面項目定義書/image_management/image_dashboard.xlsx
+++ b/docs/画面項目定義書/image_management/image_dashboard.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\image_management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0A1988-20CB-4D71-9B9E-95E8F386EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート１" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,135 +25,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">日本工学院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイル名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージダッシュボード画面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image_dashboard.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">形式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入力必須</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">項目チェック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理者サイドバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref(管理者サイドバー)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ページタイトル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージダッシュボード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージ追加ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージ追加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mo_image_addへ遷移</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージエンティティより</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イメージエンティティを取得し、繰り返しで表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">操作ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">操作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繰り返し表示、押下時削除ボタンを表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">削除ボタン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">繰り返し表示、押下時確認ポップアップを表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認ポップアップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はい(ポップアップ内)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">はい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認ポップアップを非表示、削除処理を実行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ(ポップアップ内)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認ポップアップを非表示</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+  <si>
+    <t>日本工学院</t>
+  </si>
+  <si>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>イメージダッシュボード画面</t>
+  </si>
+  <si>
+    <t>image_dashboard.html</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>入力必須</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>項目チェック</t>
+  </si>
+  <si>
+    <t>処理</t>
+  </si>
+  <si>
+    <t>管理者サイドバー</t>
+  </si>
+  <si>
+    <t>Ref(管理者サイドバー)</t>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>イメージダッシュボード</t>
+  </si>
+  <si>
+    <t>イメージ追加ボタン</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>イメージ追加</t>
+  </si>
+  <si>
+    <t>mo_image_addへ遷移</t>
+  </si>
+  <si>
+    <t>イメージ名</t>
+  </si>
+  <si>
+    <t>イメージエンティティより</t>
+  </si>
+  <si>
+    <t>イメージエンティティを取得し、繰り返しで表示</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>登録日</t>
+  </si>
+  <si>
+    <t>操作ボタン</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時削除ボタンを表示</t>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+  </si>
+  <si>
+    <t>非表示</t>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示、削除処理を実行</t>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+  </si>
+  <si>
+    <t>イメージエンティティを取得し、繰り返しで表示
+押下時、image_detailへ遷移</t>
+    <rPh sb="23" eb="26">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,28 +171,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -193,7 +192,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -219,7 +218,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Sans CJK JP"/>
@@ -227,23 +226,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -273,337 +259,356 @@
     </fill>
   </fills>
   <borders count="16">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="double"/>
-      <bottom style="double"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="dotted"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="dotted"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="文字" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="文字" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -616,9 +621,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Text Box 1"/>
+        <xdr:cNvPr id="2" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -640,15 +651,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="27360" tIns="18360" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="27360" tIns="18360" rIns="27360" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr">
             <a:lnSpc>
@@ -656,9 +674,9 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="ja-JP" sz="1000" strike="noStrike" u="none">
+            <a:rPr lang="ja-JP" sz="1000" b="1" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uFillTx/>
@@ -667,7 +685,7 @@
             </a:rPr>
             <a:t>タイトル</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -677,7 +695,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476280</xdr:colOff>
@@ -690,9 +708,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Text Box 2"/>
+        <xdr:cNvPr id="3" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -709,15 +733,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="0" tIns="18360" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="27360" tIns="18360" rIns="0" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -725,7 +756,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" strike="noStrike" u="none">
+            <a:rPr lang="ja-JP" sz="1100" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -736,7 +767,7 @@
             </a:rPr>
             <a:t>画面項目定義</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -746,7 +777,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
@@ -759,9 +790,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 3"/>
+        <xdr:cNvPr id="4" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -778,15 +815,22 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" rIns="27360" tIns="23040" bIns="0" anchor="t" upright="1">
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="23040" rIns="27360" bIns="0" anchor="t" upright="1">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="r">
             <a:lnSpc>
@@ -794,9 +838,9 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+            <a:rPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uFillTx/>
@@ -804,7 +848,7 @@
             </a:rPr>
             <a:t>All Rights Reserved,Copyright © 2025 KATAYANAGI INSTITUTE</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="Noto Serif CJK JP"/>
@@ -818,54 +862,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -897,7 +941,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -921,7 +965,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -981,91 +1025,90 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.91015625" defaultRowHeight="18.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.45"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="13">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="13">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="13">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="13">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1074,16 +1117,16 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:7" ht="13">
+      <c r="A7" s="6"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="17"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
@@ -1106,8 +1149,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+    <row r="9" spans="1:7" ht="13">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -1121,8 +1164,8 @@
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="n">
+    <row r="10" spans="1:7" ht="13">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -1138,8 +1181,8 @@
       <c r="F10" s="35"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
+    <row r="11" spans="1:7" ht="13">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -1157,8 +1200,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="n">
+    <row r="12" spans="1:7" ht="24">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -1173,11 +1216,11 @@
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
+      <c r="A13" s="33">
         <v>5</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -1195,8 +1238,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="n">
+    <row r="14" spans="1:7" ht="13">
+      <c r="A14" s="33">
         <v>6</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -1214,8 +1257,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
+    <row r="15" spans="1:7" ht="13">
+      <c r="A15" s="33">
         <v>7</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -1233,8 +1276,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="n">
+    <row r="16" spans="1:7" ht="13">
+      <c r="A16" s="33">
         <v>11</v>
       </c>
       <c r="B16" s="31" t="s">
@@ -1252,8 +1295,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="n">
+    <row r="17" spans="1:7" ht="13">
+      <c r="A17" s="33">
         <v>12</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -1269,8 +1312,8 @@
       <c r="F17" s="35"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="n">
+    <row r="18" spans="1:7" ht="13">
+      <c r="A18" s="33">
         <v>13</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -1288,8 +1331,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="n">
+    <row r="19" spans="1:7" ht="13">
+      <c r="A19" s="33">
         <v>14</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -1307,8 +1350,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="n">
+    <row r="20" spans="1:7" ht="13">
+      <c r="A20" s="33">
         <v>15</v>
       </c>
       <c r="B20" s="37"/>
@@ -1318,8 +1361,8 @@
       <c r="F20" s="37"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="n">
+    <row r="21" spans="1:7" ht="13">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
       <c r="B21" s="37"/>
@@ -1329,8 +1372,8 @@
       <c r="F21" s="35"/>
       <c r="G21" s="38"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="n">
+    <row r="22" spans="1:7" ht="13">
+      <c r="A22" s="30">
         <v>14</v>
       </c>
       <c r="B22" s="31"/>
@@ -1340,8 +1383,8 @@
       <c r="F22" s="35"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
+    <row r="23" spans="1:7" ht="13">
+      <c r="A23" s="23">
         <v>15</v>
       </c>
       <c r="B23" s="31"/>
@@ -1351,8 +1394,8 @@
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="n">
+    <row r="24" spans="1:7" ht="13">
+      <c r="A24" s="30">
         <v>16</v>
       </c>
       <c r="B24" s="31"/>
@@ -1362,8 +1405,8 @@
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="n">
+    <row r="25" spans="1:7" ht="13">
+      <c r="A25" s="23">
         <v>17</v>
       </c>
       <c r="B25" s="31"/>
@@ -1373,7 +1416,7 @@
       <c r="F25" s="35"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
@@ -1382,7 +1425,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
@@ -1391,7 +1434,7 @@
       <c r="F27" s="35"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
@@ -1400,7 +1443,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -1409,7 +1452,7 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
@@ -1418,7 +1461,7 @@
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -1427,7 +1470,7 @@
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="41"/>
@@ -1436,7 +1479,7 @@
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1">
       <c r="A33" s="42"/>
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
@@ -1444,7 +1487,7 @@
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1">
       <c r="A34" s="42"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
@@ -1452,7 +1495,7 @@
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1">
       <c r="A35" s="42"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
@@ -1460,7 +1503,7 @@
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1">
       <c r="A36" s="42"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
@@ -1473,13 +1516,9 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>